--- a/缺陷记录02.xlsx
+++ b/缺陷记录02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
   <si>
     <t>用例编号</t>
   </si>
@@ -28,7 +28,7 @@
     <t>缺陷描述</t>
   </si>
   <si>
-    <t>4.1.4</t>
+    <t>4.1.4.020</t>
   </si>
   <si>
     <t>4.1.4 001</t>
@@ -40,6 +40,9 @@
     <t>当输入一个错误的原密码时，也会提示信息验证成功，提交时才提示错误</t>
   </si>
   <si>
+    <t>4.1.4.022</t>
+  </si>
+  <si>
     <t>4.1.4 002</t>
   </si>
   <si>
@@ -49,9 +52,6 @@
     <t>修改后的新密码与原密码相同，也会提示信息验证成功，提交时才提示错误</t>
   </si>
   <si>
-    <t>4.1.5</t>
-  </si>
-  <si>
     <t>4.1.5 001</t>
   </si>
   <si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>以admin身份登录，在组织机构管理界面，删除编码为</t>
     </r>
     <r>
@@ -105,9 +111,6 @@
     <t>以admin身份登录，在组织机构管理界面，底部不显示分页工具条</t>
   </si>
   <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
     <t>4.2.1 001</t>
   </si>
   <si>
@@ -135,6 +138,9 @@
     <t>所属系统为空时，无错误提示，系统仍提交成功</t>
   </si>
   <si>
+    <t>4.2.1.058</t>
+  </si>
+  <si>
     <t>4.2.1 004</t>
   </si>
   <si>
@@ -144,6 +150,9 @@
     <t>已受领测试申请能被删除</t>
   </si>
   <si>
+    <t>4.2.1 007</t>
+  </si>
+  <si>
     <t>4.2.1 005</t>
   </si>
   <si>
@@ -153,6 +162,9 @@
     <t>基本信息填写完整，点击提交，未确认，再次提交，会保存前后两份测试申请书序号相同的测试申请</t>
   </si>
   <si>
+    <t>4.2.1.031</t>
+  </si>
+  <si>
     <t>4.2.1 006</t>
   </si>
   <si>
@@ -162,7 +174,7 @@
     <t>研制方申请编号，格式错误，缺少当前年份及序号，需求中研制方申请编号格式应为：所选研制单位简码-当前年份-序号</t>
   </si>
   <si>
-    <t>4.2.1 007</t>
+    <t>4.2.1.065</t>
   </si>
   <si>
     <t>查询日期区间内测试申请</t>
@@ -171,18 +183,27 @@
     <t>无法查询与后置区间时间相同日期的测试申请</t>
   </si>
   <si>
+    <t>4.2.1.066</t>
+  </si>
+  <si>
     <t>4.2.1 008</t>
   </si>
   <si>
     <t>申请前后区间为同一日期时，无法正确查询当天的测试申请</t>
   </si>
   <si>
+    <t>4.2.1.067</t>
+  </si>
+  <si>
     <t>4.2.1 009</t>
   </si>
   <si>
     <t>后置时间在前置时间之前，且无法正确查询</t>
   </si>
   <si>
+    <t>4.2.1.069</t>
+  </si>
+  <si>
     <t>4.2.1 010</t>
   </si>
   <si>
@@ -190,7 +211,13 @@
   </si>
   <si>
     <r>
-      <t>当查询申请信息时，将申请时间置为0-06-01时，时间显示</t>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当查询申请信息时，手动输入将申请时间置为0-06-01时，时间显示</t>
     </r>
     <r>
       <rPr>
@@ -203,11 +230,20 @@
     </r>
   </si>
   <si>
+    <t>4.2.1.070</t>
+  </si>
+  <si>
     <t>4.2.1 011</t>
   </si>
   <si>
     <r>
-      <t>当查询申请信息时，将申请时间置为-8-01-01时，时间显示</t>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当查询申请信息时，手动输入将申请时间置为-8-01-01时，时间显示</t>
     </r>
     <r>
       <rPr>
@@ -229,7 +265,13 @@
     <t>提交相同文档时，出现不停旋转的提示框，无错误提示</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.1 013</t>
+  </si>
+  <si>
+    <t>成功上传测评申请书文件</t>
+  </si>
+  <si>
+    <t>上传超过4（5-n）个文件，只能成功上传4个，其余文件丢失</t>
   </si>
   <si>
     <t>4.2.2 001</t>
@@ -241,6 +283,9 @@
     <t>任务下达时，可以修改任务编号，而需求文档中任务编号是自动生成的，不可更改，但任务下达完成后，任务编号又没有更改</t>
   </si>
   <si>
+    <t>4.2.2.022</t>
+  </si>
+  <si>
     <t>4.2.2 002</t>
   </si>
   <si>
@@ -248,14 +293,20 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>任务信息无法输入50个字符，只能输入</t>
     </r>
     <r>
       <rPr>
         <sz val="10.5"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>49</t>
     </r>
@@ -279,6 +330,9 @@
     <t>空项目任务提交成功，应不能为空</t>
   </si>
   <si>
+    <t>4.2.2.007</t>
+  </si>
+  <si>
     <t>4.2.2 004</t>
   </si>
   <si>
@@ -288,25 +342,22 @@
     <t>已下达的测试任务能够被编辑</t>
   </si>
   <si>
+    <t>4.2.2.034</t>
+  </si>
+  <si>
     <t>4.2.2 005</t>
   </si>
   <si>
-    <t>选择项目，项目信息自动带入，研制单位信息不可更改</t>
-  </si>
-  <si>
-    <t>测试任务录入时，研制单位信息自动代入，能被更改，应不可更改</t>
+    <t>任务下达时间应为即刻之后</t>
+  </si>
+  <si>
+    <t>任务下达时间可以在即刻之前时间</t>
   </si>
   <si>
     <t>4.2.2 006</t>
   </si>
   <si>
-    <t>任务下达时间应为即刻之后</t>
-  </si>
-  <si>
-    <t>任务下达时间可以在即刻之前时间</t>
-  </si>
-  <si>
-    <t>4.3.1</t>
+    <t>若测试申请状态为“已受领”，再删除该测试申请，则该申请的已下达的测试任务可以被删除</t>
   </si>
   <si>
     <t>4.3.1 001</t>
@@ -318,22 +369,31 @@
     <t>接收技术文档，添加错误文件格式后，重新添加正确格式文件，提示请上传文件，无法识别已重新上传的正确文件格式</t>
   </si>
   <si>
+    <t>4.3.1.030</t>
+  </si>
+  <si>
     <t>4.3.1 002</t>
   </si>
   <si>
+    <t>提交相同技术文档时，出现不停旋转的提示框，无错误提示</t>
+  </si>
+  <si>
+    <t>4.3.1 003</t>
+  </si>
+  <si>
     <t>操作图标可见</t>
   </si>
   <si>
     <t>点击测试过程管理：选择接收测试技术文档，点击查询得到的结果中操作图标经常不可见</t>
   </si>
   <si>
-    <t>4.3.1 003</t>
+    <t>4.3.1 004</t>
   </si>
   <si>
     <t>点击测试过程管理：选择接收测试技术文档，输入项目名称，点击查询得到的结果中操作图标经常不可见</t>
   </si>
   <si>
-    <t>4.3.1 004</t>
+    <t>4.3.1 005</t>
   </si>
   <si>
     <t>文档接收时间应为即刻之后</t>
@@ -342,7 +402,16 @@
     <t>提交0.1大纲——文档接收时间可以任意选择，甚至可以选择在任务下达之前的</t>
   </si>
   <si>
-    <t>4.3.1 005</t>
+    <t>4.3.1 006</t>
+  </si>
+  <si>
+    <t>界面正常</t>
+  </si>
+  <si>
+    <t>接受测试申请的列表栏会重叠，技术文档编辑的也会，无法重现</t>
+  </si>
+  <si>
+    <t>4.3.1 007</t>
   </si>
   <si>
     <t>查看技术文档相关信息</t>
@@ -351,13 +420,72 @@
     <t>查看技术文档——项目管理员查看不到技术文档</t>
   </si>
   <si>
-    <t>4.3.2</t>
+    <t>4.3.1 008</t>
+  </si>
+  <si>
+    <t>责任专家成功查看系统管理员上传的技术文档</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上传超过4（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5-n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）个文件，只能成功上传</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个，其余文件丢失</t>
+    </r>
+  </si>
+  <si>
+    <t>4.3.1 009</t>
+  </si>
+  <si>
+    <t>接收测试申请的列表栏会重叠</t>
   </si>
   <si>
     <t>4.3.2 001</t>
   </si>
   <si>
-    <t>责任专家首页——未审查文档数目显示混乱，数目错误</t>
+    <t>可以选择不同类型的文档查看</t>
+  </si>
+  <si>
+    <t>无法对*.xls;*.xlsx;*类型的文档进行查看</t>
   </si>
   <si>
     <t>4.3.2 002</t>
@@ -378,91 +506,148 @@
     <t>责任专家大纲/报告审查责任专家大纲/报告审查，审查意见文档接收时间选择可随意选择甚至在项目下达任务之前</t>
   </si>
   <si>
+    <t>4.3.2.052</t>
+  </si>
+  <si>
     <t>4.3.2 005</t>
   </si>
   <si>
     <t>添加错误文件格式后，重新添加正确格式文件，提示请上传文件，无法识别已重新上传的正确文件格式</t>
   </si>
   <si>
-    <t>4.3.3</t>
-  </si>
-  <si>
-    <t>4.3.3 001</t>
-  </si>
-  <si>
-    <t>n条记录提交测评机构</t>
-  </si>
-  <si>
-    <t>选择两行（n行）记录提交测评机构时，只能提交最上面一行的记录</t>
-  </si>
-  <si>
-    <t>4.3.3 002</t>
+    <t>4.3.2 006</t>
+  </si>
+  <si>
+    <t>4.3.2.053</t>
+  </si>
+  <si>
+    <t>4.3.2 007</t>
+  </si>
+  <si>
+    <t>成功上传文档</t>
+  </si>
+  <si>
+    <t>添加文档，删除，再添加文档，无法上传</t>
+  </si>
+  <si>
+    <t>4.3.2.055</t>
+  </si>
+  <si>
+    <t>4.3.2 008</t>
+  </si>
+  <si>
+    <t>添加多个文档，部分文档未上传成功</t>
+  </si>
+  <si>
+    <t>4.3.3 003</t>
+  </si>
+  <si>
+    <t>不选择项目点击提交测评机构提示“选择一个项目”</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 不选择项目点击提交测评机构——没有提示信息</t>
+  </si>
+  <si>
+    <t>4.3.4 001</t>
   </si>
   <si>
     <t>显示返回按钮</t>
   </si>
   <si>
-    <t>项目管理员在审查意见输出页面点击查看得到项目信息，没有显示专家审查意见信息与返回按钮</t>
-  </si>
-  <si>
-    <t>4.3.3 003</t>
-  </si>
-  <si>
-    <t>不选择项目点击提交测评机构提示“选择一个项目”</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 不选择项目点击提交测评机构——没有提示信息</t>
-  </si>
-  <si>
-    <t>4.3.4</t>
-  </si>
-  <si>
-    <t>4.3.4 001</t>
-  </si>
-  <si>
-    <t>选择多个项目点击详情提示“选择一条记录查看”</t>
-  </si>
-  <si>
-    <t>选中多个项目，点击详情不会提示不能选择多个项目且只显示了选中项目的第一条信息</t>
+    <t>项目管理员在审查意见输出页面点击查看——项目信息可见，返回不可见</t>
   </si>
   <si>
     <t>4.3.4 002</t>
   </si>
   <si>
-    <t>项目管理员在审查意见输出页面点击查看——项目信息可见，返回不可见</t>
+    <t>审查意见编辑，对已有文件删除修改</t>
+  </si>
+  <si>
+    <t>进行审查意见编辑操，看不见已有文件，无法对已有文件修改删除</t>
+  </si>
+  <si>
+    <t>4.3.4.S042</t>
   </si>
   <si>
     <t>4.3.4 003</t>
   </si>
   <si>
-    <t>审查意见编辑，对已有文件删除修改</t>
-  </si>
-  <si>
-    <t>进行审查意见编辑操，看不见已有文件，无法对已有文件修改删除</t>
-  </si>
-  <si>
-    <t>4.3.5</t>
+    <t>上传相同文件提示“是否替换相同文件”</t>
+  </si>
+  <si>
+    <t>出现错误提示框，但没有提示是否将文件替换同时出现了“正在提交数据”的提示框，并挡住错误提示框</t>
+  </si>
+  <si>
+    <t>4.3.4.S040</t>
+  </si>
+  <si>
+    <t>4.3.4 004</t>
+  </si>
+  <si>
+    <t>上传多个文件时，点击确认时，文件才开始上传，部分文件未上传成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4.3.5.005</t>
   </si>
   <si>
     <t>4.3.5 001</t>
   </si>
   <si>
-    <t>上传相同文件提示“是否替换相同文件”</t>
-  </si>
-  <si>
-    <t>出现错误提示框，但没有提示是否将文件替换同时出现了“正在提交数据”的提示框，并挡住错误提示框</t>
-  </si>
-  <si>
-    <t>4.6.1</t>
-  </si>
-  <si>
-    <t>4.6.1 001</t>
-  </si>
-  <si>
-    <t>邮箱格式</t>
-  </si>
-  <si>
-    <t>点击系统管理-用户管理-勾选system用户-点击用户编辑-输入的邮箱12@12.12 不存在该域名的邮箱，确显示修改成功</t>
+    <t>4.3.5 002</t>
+  </si>
+  <si>
+    <t>4.3.5(3)可删除一条或者多条技术文档信息</t>
+  </si>
+  <si>
+    <t>多条技术文档信息记录删除，选中的最后一条无法删除</t>
+  </si>
+  <si>
+    <t>4.3.5 003</t>
+  </si>
+  <si>
+    <t>4.3.5(1)可重新提交文档附件，修改文档接收时间</t>
+  </si>
+  <si>
+    <t>添加新文件后，提交后查看发现添加失败</t>
+  </si>
+  <si>
+    <t>4.3.5 004</t>
+  </si>
+  <si>
+    <t>添加一个新附件后，点击查看发现新旧文件共存，再编辑也无法添加第三个附件</t>
+  </si>
+  <si>
+    <t>4.3.5 005</t>
+  </si>
+  <si>
+    <t>4.3.5 006</t>
+  </si>
+  <si>
+    <t>删除文档</t>
+  </si>
+  <si>
+    <t>技术文档编辑，文档删除功能有时在有时不在</t>
+  </si>
+  <si>
+    <t>4.4.1.001</t>
+  </si>
+  <si>
+    <t>4.4.1（2）审查计划管理：编辑</t>
+  </si>
+  <si>
+    <t>会议组织单位选择单位后无法改为空。</t>
+  </si>
+  <si>
+    <t>4.4.1.002</t>
+  </si>
+  <si>
+    <t>4.4.2（1）审查会记录管理：编辑</t>
+  </si>
+  <si>
+    <t>提示添加审查附件成功，实际无法添加</t>
+  </si>
+  <si>
+    <t>4.6.1.007</t>
   </si>
   <si>
     <t>4.6.1 002</t>
@@ -492,6 +677,9 @@
     <t>在“admin身份”登陆后的“用户管理”功能中，点击“用户录入”，在“组织机构”中选择组织机构，选择超过7（7-n）个组织机构会提示数据太长无法录入</t>
   </si>
   <si>
+    <t>4.6.1.050</t>
+  </si>
+  <si>
     <t>4.6.1 005</t>
   </si>
   <si>
@@ -501,9 +689,6 @@
     <t>内置系统管理员密码允许被重置</t>
   </si>
   <si>
-    <t>4.6.2</t>
-  </si>
-  <si>
     <t>4.6.2 001</t>
   </si>
   <si>
@@ -513,6 +698,9 @@
     <t>在“admin身份”登陆后的“组织机构管理”功能中，先点击一个列表里的组织机构如“软件评测中心”，再点击“组织机构录入”，“组织机构录入”框中，上级组织机构已经是“软件评测中心”，无法再选择录入一个“无上级组织机构”的组织机构（上级组织机构为空），需要再重新退出系统，重新登陆才可以再登陆</t>
   </si>
   <si>
+    <t>4.6.2.005</t>
+  </si>
+  <si>
     <t>4.6.2 002</t>
   </si>
   <si>
@@ -522,6 +710,9 @@
     <t>上级机构类型为“部门”，机构类型可选“部门”，</t>
   </si>
   <si>
+    <t>4.6.2.007</t>
+  </si>
+  <si>
     <t>4.6.2 003</t>
   </si>
   <si>
@@ -540,7 +731,7 @@
     <t>单位信息的录入，存在允许重复录入相同单位信息的缺陷。</t>
   </si>
   <si>
-    <t>4.7.1</t>
+    <t>4.7.1.010</t>
   </si>
   <si>
     <t>4.7.1 001</t>
@@ -552,7 +743,7 @@
     <t>录入单位时，简码不能重复存在“ABC”不能再存在“abc”</t>
   </si>
   <si>
-    <t>4.7.2</t>
+    <t>4.7.2.021</t>
   </si>
   <si>
     <t>4.7.2 001</t>
@@ -573,6 +764,9 @@
     <t>在“system”身份登陆后的“人员信息管理”功能中，在“所有人员"中点击“录入”，录入一个手机号码为“19444444444”的人员，可以录入成功</t>
   </si>
   <si>
+    <t>4.7.2.061</t>
+  </si>
+  <si>
     <t>4.7.2 003</t>
   </si>
   <si>
@@ -600,6 +794,9 @@
     <t>查询单位时，输入%，无法正确查询</t>
   </si>
   <si>
+    <t>4.7.2.054</t>
+  </si>
+  <si>
     <t>4.7.2 006</t>
   </si>
   <si>
@@ -609,6 +806,9 @@
     <t>在在“system”身份登陆后的“人员信息管理”功能中，在“所有人员"中点击一个已存在的用户，点击删除，系统提示删除成功，但是人员依旧在列表，没有删除</t>
   </si>
   <si>
+    <t>4.7.2.055</t>
+  </si>
+  <si>
     <t>4.7.2 007</t>
   </si>
   <si>
@@ -616,6 +816,15 @@
   </si>
   <si>
     <t>在在“system”身份登陆后的“人员信息管理”功能中，在“所有人员"中点击两个已存在的用户，点击删除，系统提示删除成功，但是人员依旧在列表，没有删除</t>
+  </si>
+  <si>
+    <t>4.7.2 008</t>
+  </si>
+  <si>
+    <t>4.7.2.1（1）人员信息管理.所有人：录入</t>
+  </si>
+  <si>
+    <t>录入中单位列表搜索框无用</t>
   </si>
 </sst>
 </file>
@@ -623,12 +832,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -645,8 +854,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -663,6 +888,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -671,14 +948,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,9 +983,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,9 +1007,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,71 +1023,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,6 +1042,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -819,6 +1055,132 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -828,7 +1190,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,67 +1220,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,102 +1238,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1016,38 +1252,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color auto="1"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1075,6 +1317,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1090,11 +1341,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1113,6 +1370,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1121,10 +1398,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1133,163 +1410,313 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1610,754 +2037,988 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:B59"/>
+      <selection activeCell="A78" sqref="$A78:$XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="17.2222222222222" style="13" customWidth="1"/>
     <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.4" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="D3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="4" s="3" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" s="3" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" s="3" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" s="3" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="5" t="s">
+    </row>
+    <row r="9" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A9" s="23"/>
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+    </row>
+    <row r="10" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A10" s="23"/>
+      <c r="B10" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+    </row>
+    <row r="11" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A11" s="16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="17" t="s">
         <v>38</v>
       </c>
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="17" t="s">
         <v>41</v>
       </c>
+      <c r="C13" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="16" t="s">
         <v>44</v>
       </c>
+      <c r="B14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
+      <c r="D15" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="A16" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="B16" s="17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="C16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5" t="s">
+    </row>
+    <row r="17" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A17" s="16" t="s">
         <v>53</v>
       </c>
+      <c r="B17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="17" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
+      <c r="C19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="5" t="s">
+    </row>
+    <row r="20" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A20" s="23"/>
+      <c r="B20" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="C20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="57.6" spans="1:4">
+      <c r="A21" s="23"/>
+      <c r="B21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>66</v>
+      <c r="A22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>72</v>
+      <c r="A23" s="23"/>
+      <c r="B23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="B25" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="C25" s="17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4" t="s">
+      <c r="D25" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="5" t="s">
+    </row>
+    <row r="26" s="4" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A26" s="24"/>
+      <c r="B26" s="17" t="s">
         <v>84</v>
       </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="57.6" spans="1:4">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A28" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="29" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" s="5" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A32" s="27"/>
+      <c r="B32" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" s="5" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A35" s="29"/>
+      <c r="B35" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" s="6" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="33"/>
+    </row>
+    <row r="37" s="6" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="33"/>
+    </row>
+    <row r="38" s="6" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="33"/>
+    </row>
+    <row r="39" s="6" customFormat="1" ht="15.6" spans="1:4">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="33"/>
+    </row>
+    <row r="40" s="7" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A40" s="34"/>
+      <c r="B40" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D41" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A42" s="38"/>
+      <c r="B42" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" s="8" customFormat="1" ht="57.6" spans="1:4">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" s="8" customFormat="1" ht="46.8" spans="1:4">
+      <c r="A44" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="46.8" spans="1:4">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="31.2" spans="1:4">
-      <c r="A36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="42" customHeight="1" spans="1:4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="46" customHeight="1" spans="1:4">
-      <c r="A39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="4" t="s">
+      <c r="D44" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="4" t="s">
+    </row>
+    <row r="45" s="9" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A45" s="44"/>
+      <c r="B45" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="C45" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" s="10" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A46" s="42" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="43" s="2" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A43" s="4" t="s">
+      <c r="B46" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C46" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D46" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="5" t="s">
+    </row>
+    <row r="47" s="10" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A47" s="42" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="72" spans="1:4">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
+      <c r="B47" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C47" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D44" s="5" t="s">
+    </row>
+    <row r="48" s="8" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A48" s="38"/>
+      <c r="B48" s="39" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" s="2" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
+      <c r="C48" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D48" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="5" t="s">
+    </row>
+    <row r="49" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A49" s="38"/>
+      <c r="B49" s="39" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="72" spans="1:4">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
+      <c r="C49" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D49" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="5" t="s">
+    </row>
+    <row r="50" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A50" s="38"/>
+      <c r="B50" s="39" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4" t="s">
+      <c r="C50" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D50" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="5" t="s">
+    </row>
+    <row r="51" s="8" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A51" s="38" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="48" s="2" customFormat="1" ht="129.6" spans="1:4">
-      <c r="A48" s="4" t="s">
+      <c r="B51" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="C51" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D51" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="5" t="s">
+    </row>
+    <row r="52" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A52" s="38" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4" t="s">
+      <c r="B52" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C52" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="5" t="s">
+    </row>
+    <row r="53" s="8" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A53" s="42" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4" t="s">
+      <c r="B53" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C53" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="39" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" s="7" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A54" s="49"/>
+      <c r="B54" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="C54" s="50" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="51" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4" t="s">
+      <c r="D54" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="C51" s="4" t="s">
+    </row>
+    <row r="55" s="7" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A55" s="49"/>
+      <c r="B55" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="C55" s="50" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="52" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A52" s="4" t="s">
+      <c r="D55" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="4" t="s">
+    </row>
+    <row r="56" s="7" customFormat="1" ht="46.8" spans="1:4">
+      <c r="A56" s="49"/>
+      <c r="B56" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C56" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="D52" s="5" t="s">
+    </row>
+    <row r="57" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A57" s="38"/>
+      <c r="B57" s="39" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="53" s="2" customFormat="1" ht="72" spans="1:4">
-      <c r="A53" s="4" t="s">
+      <c r="C57" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A58" s="38"/>
+      <c r="B58" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C58" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D58" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D53" s="5" t="s">
+    </row>
+    <row r="59" s="5" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A59" s="27"/>
+      <c r="B59" s="52" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="72" spans="1:4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4" t="s">
+      <c r="C59" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="D59" s="53" t="s">
         <v>163</v>
       </c>
-      <c r="D54" s="5" t="s">
+    </row>
+    <row r="60" s="5" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A60" s="27"/>
+      <c r="B60" s="52" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="72" spans="1:4">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4" t="s">
+      <c r="C60" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="D60" s="53" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="5" t="s">
+    </row>
+    <row r="61" s="8" customFormat="1" ht="72" spans="1:4">
+      <c r="A61" s="42" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4" t="s">
+      <c r="B61" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C61" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D61" s="40" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" s="2" customFormat="1" spans="1:4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4" t="s">
+    <row r="62" s="8" customFormat="1" ht="57.6" spans="1:4">
+      <c r="A62" s="38"/>
+      <c r="B62" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C62" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D62" s="40" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="58" s="2" customFormat="1" ht="72" spans="1:4">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4" t="s">
+    <row r="63" s="8" customFormat="1" ht="72" spans="1:4">
+      <c r="A63" s="38"/>
+      <c r="B63" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C63" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D63" s="40" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" s="2" customFormat="1" ht="72" spans="1:4">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
+    <row r="64" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A64" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="B64" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="C64" s="39" t="s">
         <v>179</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" s="8" customFormat="1" ht="129.6" spans="1:4">
+      <c r="A66" s="38"/>
+      <c r="B66" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" s="8" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A67" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" s="8" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A68" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A69" s="38"/>
+      <c r="B69" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" s="8" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A70" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71" s="11" customFormat="1" ht="72" spans="1:4">
+      <c r="A71" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="55" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" s="11" customFormat="1" ht="72" spans="1:4">
+      <c r="A72" s="56"/>
+      <c r="B72" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" s="11" customFormat="1" ht="72" spans="1:4">
+      <c r="A73" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="55" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="74" s="11" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A74" s="56"/>
+      <c r="B74" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="55" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" s="11" customFormat="1" spans="1:4">
+      <c r="A75" s="56"/>
+      <c r="B75" s="54" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" s="11" customFormat="1" ht="72" spans="1:4">
+      <c r="A76" s="42" t="s">
+        <v>216</v>
+      </c>
+      <c r="B76" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" s="11" customFormat="1" ht="72" spans="1:4">
+      <c r="A77" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" s="12" customFormat="1" ht="59.25" customHeight="1" spans="1:4">
+      <c r="A78" s="57"/>
+      <c r="B78" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="58" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/缺陷记录02.xlsx
+++ b/缺陷记录02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250">
   <si>
     <t>用例编号</t>
   </si>
@@ -111,6 +111,9 @@
     <t>以admin身份登录，在组织机构管理界面，底部不显示分页工具条</t>
   </si>
   <si>
+    <t>4.2.1.077</t>
+  </si>
+  <si>
     <t>4.2.1 001</t>
   </si>
   <si>
@@ -120,6 +123,9 @@
     <t>研制任务书号为空时，无错误提示，系统仍提交成功</t>
   </si>
   <si>
+    <t>4.2.1.078</t>
+  </si>
+  <si>
     <t>4.2.1 002</t>
   </si>
   <si>
@@ -127,6 +133,9 @@
   </si>
   <si>
     <t>合同编号为空时，无错误提示，系统仍提交成功</t>
+  </si>
+  <si>
+    <t>4.2.1.079</t>
   </si>
   <si>
     <t>4.2.1 003</t>
@@ -256,6 +265,9 @@
     </r>
   </si>
   <si>
+    <t>4.2.1.021</t>
+  </si>
+  <si>
     <t>4.2.1 012</t>
   </si>
   <si>
@@ -265,6 +277,9 @@
     <t>提交相同文档时，出现不停旋转的提示框，无错误提示</t>
   </si>
   <si>
+    <t>4.2.1.029；4.2.1.030</t>
+  </si>
+  <si>
     <t>4.2.1 013</t>
   </si>
   <si>
@@ -272,6 +287,21 @@
   </si>
   <si>
     <t>上传超过4（5-n）个文件，只能成功上传4个，其余文件丢失</t>
+  </si>
+  <si>
+    <t>4.2.1 022；4.2.1 023</t>
+  </si>
+  <si>
+    <t>4.2.1 014</t>
+  </si>
+  <si>
+    <t>成功上传文件</t>
+  </si>
+  <si>
+    <t>上传无扩展名文件，查看不到已上传文件</t>
+  </si>
+  <si>
+    <t>4.2.2.042</t>
   </si>
   <si>
     <t>4.2.2 001</t>
@@ -321,6 +351,9 @@
     </r>
   </si>
   <si>
+    <t>4.2.2.043</t>
+  </si>
+  <si>
     <t>4.2.2 003</t>
   </si>
   <si>
@@ -360,6 +393,9 @@
     <t>若测试申请状态为“已受领”，再删除该测试申请，则该申请的已下达的测试任务可以被删除</t>
   </si>
   <si>
+    <t>4.3.1.057</t>
+  </si>
+  <si>
     <t>4.3.1 001</t>
   </si>
   <si>
@@ -378,6 +414,9 @@
     <t>提交相同技术文档时，出现不停旋转的提示框，无错误提示</t>
   </si>
   <si>
+    <t>4.3.1.052</t>
+  </si>
+  <si>
     <t>4.3.1 003</t>
   </si>
   <si>
@@ -387,12 +426,18 @@
     <t>点击测试过程管理：选择接收测试技术文档，点击查询得到的结果中操作图标经常不可见</t>
   </si>
   <si>
+    <t>4.3.1.053</t>
+  </si>
+  <si>
     <t>4.3.1 004</t>
   </si>
   <si>
     <t>点击测试过程管理：选择接收测试技术文档，输入项目名称，点击查询得到的结果中操作图标经常不可见</t>
   </si>
   <si>
+    <t>4.3.1.054</t>
+  </si>
+  <si>
     <t>4.3.1 005</t>
   </si>
   <si>
@@ -402,6 +447,9 @@
     <t>提交0.1大纲——文档接收时间可以任意选择，甚至可以选择在任务下达之前的</t>
   </si>
   <si>
+    <t>4.3.1.056</t>
+  </si>
+  <si>
     <t>4.3.1 006</t>
   </si>
   <si>
@@ -411,6 +459,9 @@
     <t>接受测试申请的列表栏会重叠，技术文档编辑的也会，无法重现</t>
   </si>
   <si>
+    <t>4.3.1.055</t>
+  </si>
+  <si>
     <t>4.3.1 007</t>
   </si>
   <si>
@@ -418,6 +469,9 @@
   </si>
   <si>
     <t>查看技术文档——项目管理员查看不到技术文档</t>
+  </si>
+  <si>
+    <t>4.3.1.058</t>
   </si>
   <si>
     <t>4.3.1 008</t>
@@ -433,25 +487,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>上传超过4（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5-n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）个文件，只能成功上传</t>
+      <t>上传超过多个个文件，只能成功上传</t>
     </r>
     <r>
       <rPr>
@@ -473,10 +509,25 @@
     </r>
   </si>
   <si>
+    <t>4.3.1.059</t>
+  </si>
+  <si>
     <t>4.3.1 009</t>
   </si>
   <si>
-    <t>接收测试申请的列表栏会重叠</t>
+    <t>成功上传文档</t>
+  </si>
+  <si>
+    <t>上传一个文件，取消后，再添加其他文件，无法上传</t>
+  </si>
+  <si>
+    <t>4.3.1.060</t>
+  </si>
+  <si>
+    <t>4.3.1 010</t>
+  </si>
+  <si>
+    <t>4.3.2.056</t>
   </si>
   <si>
     <t>4.3.2 001</t>
@@ -515,6 +566,9 @@
     <t>添加错误文件格式后，重新添加正确格式文件，提示请上传文件，无法识别已重新上传的正确文件格式</t>
   </si>
   <si>
+    <t>4.3.2.057</t>
+  </si>
+  <si>
     <t>4.3.2 006</t>
   </si>
   <si>
@@ -522,9 +576,6 @@
   </si>
   <si>
     <t>4.3.2 007</t>
-  </si>
-  <si>
-    <t>成功上传文档</t>
   </si>
   <si>
     <t>添加文档，删除，再添加文档，无法上传</t>
@@ -832,10 +883,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -893,55 +944,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -956,7 +967,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,6 +980,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -976,47 +995,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1031,7 +1012,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1049,7 +1100,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1058,126 +1109,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1191,54 +1296,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,8 +1353,64 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1321,52 +1434,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1374,19 +1442,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,10 +1455,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1410,137 +1467,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1551,6 +1608,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1562,24 +1622,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1613,6 +1655,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1628,20 +1679,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" indent="2"/>
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1652,71 +1697,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2037,988 +2031,1026 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="$A78:$XFD78"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A38" sqref="$A38:$XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="13" customWidth="1"/>
+    <col min="1" max="1" width="17.2222222222222" style="8" customWidth="1"/>
     <col min="2" max="2" width="16.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="22.6666666666667" customWidth="1"/>
     <col min="4" max="4" width="34.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="17.4" spans="1:4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A8" s="23"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A9" s="23"/>
-      <c r="B9" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="17" t="s">
+      <c r="A9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
+      <c r="C9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A10" s="23"/>
-      <c r="B10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="A10" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="A11" s="11" t="s">
         <v>35</v>
       </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="18" t="s">
+      <c r="A12" s="18" t="s">
         <v>39</v>
       </c>
+      <c r="B12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A13" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="A13" s="11" t="s">
         <v>43</v>
       </c>
+      <c r="B13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>46</v>
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>49</v>
+      <c r="D15" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A16" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>52</v>
+      <c r="A16" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A17" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="A17" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="B17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>59</v>
+      <c r="D18" s="13" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A19" s="23"/>
-      <c r="B19" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>62</v>
+      <c r="A19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A20" s="23"/>
-      <c r="B20" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="18" t="s">
+      <c r="A20" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" s="4" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A21" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="57.6" spans="1:4">
+      <c r="A22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A23" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A24" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A25" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A26" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A27" s="22"/>
+      <c r="B27" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="57.6" spans="1:4">
+      <c r="A28" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A29" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A21" s="23"/>
-      <c r="B21" s="17" t="s">
+      <c r="D29" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A30" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A31" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A32" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" s="6" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A33" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A34" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A35" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" s="6" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A36" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" s="7" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A37" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" s="6" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A38" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="57.6" spans="1:4">
+      <c r="A41" s="18"/>
+      <c r="B41" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="46.8" spans="1:4">
+      <c r="A42" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A43" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A23" s="23"/>
-      <c r="B23" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A24" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" s="4" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A26" s="24"/>
-      <c r="B26" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A28" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" s="5" customFormat="1" ht="31.2" spans="1:4">
-      <c r="A32" s="27"/>
-      <c r="B32" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" s="5" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A35" s="29"/>
-      <c r="B35" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" s="6" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="37" s="6" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="33"/>
-    </row>
-    <row r="38" s="6" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="33"/>
-    </row>
-    <row r="39" s="6" customFormat="1" ht="15.6" spans="1:4">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="33"/>
-    </row>
-    <row r="40" s="7" customFormat="1" ht="31.2" spans="1:4">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A42" s="38"/>
-      <c r="B42" s="39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="39" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" s="8" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" s="8" customFormat="1" ht="46.8" spans="1:4">
-      <c r="A44" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C44" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" s="9" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A45" s="44"/>
-      <c r="B45" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" s="10" customFormat="1" ht="31.2" spans="1:4">
-      <c r="A46" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D46" s="48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" s="10" customFormat="1" ht="31.2" spans="1:4">
-      <c r="A47" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="39" t="s">
+    </row>
+    <row r="44" s="6" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A44" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="48" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" s="8" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="49" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A49" s="38"/>
-      <c r="B49" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A50" s="38"/>
-      <c r="B50" s="39" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" s="8" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A51" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A52" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" s="8" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A53" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="39" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" s="7" customFormat="1" ht="31.2" spans="1:4">
-      <c r="A54" s="49"/>
-      <c r="B54" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="50" t="s">
+      <c r="D44" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="D54" s="37" t="s">
+    </row>
+    <row r="45" s="6" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A45" s="11" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="55" s="7" customFormat="1" ht="31.2" spans="1:4">
-      <c r="A55" s="49"/>
-      <c r="B55" s="39" t="s">
+      <c r="B45" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C45" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="D55" s="37" t="s">
+    </row>
+    <row r="46" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="12" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="56" s="7" customFormat="1" ht="46.8" spans="1:4">
-      <c r="A56" s="49"/>
-      <c r="B56" s="39" t="s">
+      <c r="C46" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="37" t="s">
+      <c r="D46" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="57" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A57" s="38"/>
-      <c r="B57" s="39" t="s">
+    <row r="47" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A47" s="18"/>
+      <c r="B47" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C57" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A58" s="38"/>
-      <c r="B58" s="39" t="s">
+      <c r="C47" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="D47" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="51" t="s">
+    </row>
+    <row r="48" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A48" s="18"/>
+      <c r="B48" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="59" s="5" customFormat="1" ht="31.2" spans="1:4">
-      <c r="A59" s="27"/>
-      <c r="B59" s="52" t="s">
+      <c r="C48" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="D48" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="D59" s="53" t="s">
+    </row>
+    <row r="49" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A49" s="18" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="60" s="5" customFormat="1" ht="31.2" spans="1:4">
-      <c r="A60" s="27"/>
-      <c r="B60" s="52" t="s">
+      <c r="B49" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C49" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D60" s="53" t="s">
+      <c r="D49" s="12" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="61" s="8" customFormat="1" ht="72" spans="1:4">
-      <c r="A61" s="42" t="s">
+    <row r="50" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A50" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B50" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C50" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="40" t="s">
+    </row>
+    <row r="51" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A51" s="11" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="62" s="8" customFormat="1" ht="57.6" spans="1:4">
-      <c r="A62" s="38"/>
-      <c r="B62" s="39" t="s">
+      <c r="B51" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="39" t="s">
+      <c r="C51" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" s="6" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A52" s="25"/>
+      <c r="B52" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="C52" s="36" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="63" s="8" customFormat="1" ht="72" spans="1:4">
-      <c r="A63" s="38"/>
-      <c r="B63" s="39" t="s">
+      <c r="D52" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C63" s="39" t="s">
+    </row>
+    <row r="53" s="6" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A53" s="25"/>
+      <c r="B53" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D63" s="40" t="s">
+      <c r="C53" s="36" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="64" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A64" s="42" t="s">
+      <c r="D53" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="B64" s="39" t="s">
+    </row>
+    <row r="54" s="6" customFormat="1" ht="46.8" spans="1:4">
+      <c r="A54" s="25"/>
+      <c r="B54" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C64" s="39" t="s">
+      <c r="C54" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="40" t="s">
+    </row>
+    <row r="55" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A55" s="18"/>
+      <c r="B55" s="12" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="65" s="3" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A65" s="20"/>
-      <c r="B65" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="66" s="8" customFormat="1" ht="129.6" spans="1:4">
-      <c r="A66" s="38"/>
-      <c r="B66" s="39" t="s">
+      <c r="C55" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="56" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A56" s="18"/>
+      <c r="B56" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="C66" s="39" t="s">
+      <c r="C56" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D56" s="27" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="67" s="8" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A67" s="42" t="s">
+    <row r="57" s="6" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A57" s="25"/>
+      <c r="B57" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="C57" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="39" t="s">
+      <c r="D57" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="D67" s="40" t="s">
+    </row>
+    <row r="58" s="6" customFormat="1" ht="31.2" spans="1:4">
+      <c r="A58" s="25"/>
+      <c r="B58" s="31" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="68" s="8" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A68" s="42" t="s">
+      <c r="C58" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="D58" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C68" s="39" t="s">
+    </row>
+    <row r="59" s="2" customFormat="1" ht="72" spans="1:4">
+      <c r="A59" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="B59" s="12" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="69" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A69" s="38"/>
-      <c r="B69" s="39" t="s">
+      <c r="C59" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="39" t="s">
+      <c r="D59" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D69" s="40" t="s">
+    </row>
+    <row r="60" s="2" customFormat="1" ht="57.6" spans="1:4">
+      <c r="A60" s="18"/>
+      <c r="B60" s="12" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="70" s="8" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A70" s="42" t="s">
+      <c r="C60" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="D60" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="C70" s="39" t="s">
+    </row>
+    <row r="61" s="2" customFormat="1" ht="72" spans="1:4">
+      <c r="A61" s="18"/>
+      <c r="B61" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="40" t="s">
+      <c r="C61" s="12" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="71" s="11" customFormat="1" ht="72" spans="1:4">
-      <c r="A71" s="42" t="s">
+      <c r="D61" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B71" s="54" t="s">
+    </row>
+    <row r="62" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A62" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="54" t="s">
+      <c r="B62" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="D71" s="55" t="s">
+      <c r="C62" s="12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="72" s="11" customFormat="1" ht="72" spans="1:4">
-      <c r="A72" s="56"/>
-      <c r="B72" s="54" t="s">
+      <c r="D62" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C72" s="54" t="s">
+    </row>
+    <row r="63" s="3" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" s="2" customFormat="1" ht="129.6" spans="1:4">
+      <c r="A64" s="18"/>
+      <c r="B64" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="D72" s="55" t="s">
+      <c r="C64" s="12" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="73" s="11" customFormat="1" ht="72" spans="1:4">
-      <c r="A73" s="8" t="s">
+      <c r="D64" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B73" s="54" t="s">
+    </row>
+    <row r="65" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A65" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C73" s="54" t="s">
+      <c r="B65" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="C65" s="12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="74" s="11" customFormat="1" ht="28.8" spans="1:4">
-      <c r="A74" s="56"/>
-      <c r="B74" s="54" t="s">
+      <c r="D65" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C74" s="54" t="s">
+    </row>
+    <row r="66" s="2" customFormat="1" ht="43.2" spans="1:4">
+      <c r="A66" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D74" s="55" t="s">
+      <c r="B66" s="12" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="75" s="11" customFormat="1" spans="1:4">
-      <c r="A75" s="56"/>
-      <c r="B75" s="54" t="s">
+      <c r="C66" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C75" s="54" t="s">
+      <c r="D66" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D75" s="55" t="s">
+    </row>
+    <row r="67" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A67" s="18"/>
+      <c r="B67" s="12" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="76" s="11" customFormat="1" ht="72" spans="1:4">
-      <c r="A76" s="42" t="s">
+      <c r="C67" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B76" s="54" t="s">
+      <c r="D67" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="54" t="s">
+    </row>
+    <row r="68" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A68" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="D76" s="55" t="s">
+      <c r="B68" s="12" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="77" s="11" customFormat="1" ht="72" spans="1:4">
-      <c r="A77" s="42" t="s">
+      <c r="C68" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B77" s="54" t="s">
+      <c r="D68" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="C77" s="54" t="s">
+    </row>
+    <row r="69" s="2" customFormat="1" ht="72" spans="1:4">
+      <c r="A69" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="B69" s="12" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="78" s="12" customFormat="1" ht="59.25" customHeight="1" spans="1:4">
-      <c r="A78" s="57"/>
-      <c r="B78" s="54" t="s">
+      <c r="C69" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="D69" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D78" s="58" t="s">
+    </row>
+    <row r="70" s="2" customFormat="1" ht="72" spans="1:4">
+      <c r="A70" s="18"/>
+      <c r="B70" s="12" t="s">
         <v>226</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="72" spans="1:4">
+      <c r="A71" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" s="2" customFormat="1" ht="28.8" spans="1:4">
+      <c r="A72" s="18"/>
+      <c r="B72" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" s="2" customFormat="1" spans="1:4">
+      <c r="A73" s="18"/>
+      <c r="B73" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="72" spans="1:4">
+      <c r="A74" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="72" spans="1:4">
+      <c r="A75" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" s="6" customFormat="1" ht="59.25" customHeight="1" spans="1:4">
+      <c r="A76" s="25"/>
+      <c r="B76" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D76" s="28" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
